--- a/data/words/v1/形容词做谓语.xlsx
+++ b/data/words/v1/形容词做谓语.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81435722-36B5-7849-BA42-0EB2A7868426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A9AAA7-5427-1246-BE64-CC055162CDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="形容词做谓语" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>

--- a/data/words/v1/形容词做谓语.xlsx
+++ b/data/words/v1/形容词做谓语.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A9AAA7-5427-1246-BE64-CC055162CDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB023423-0173-814D-9FDF-59A9FBDF73CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="形容词做谓语" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>天气-夏季-中性</t>
   </si>
   <si>
-    <t>天气-夏季=差</t>
-  </si>
-  <si>
     <t>天气-秋季-好</t>
   </si>
   <si>
@@ -1613,13 +1610,17 @@
   </si>
   <si>
     <t>昂首挺胸</t>
+  </si>
+  <si>
+    <t>天气-夏季-差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,6 +1638,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1682,7 +1689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1690,6 +1697,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1999,10 +2009,10 @@
   <dimension ref="A1:AK619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
@@ -2098,4910 +2108,4910 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P179" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P187" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:17">
       <c r="A193" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P193" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:17">
       <c r="A194" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="1:17">
       <c r="A195" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:17">
       <c r="A196" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="1:17">
       <c r="A197" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:17">
       <c r="A198" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:17">
       <c r="A199" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:17">
       <c r="A200" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:17">
       <c r="A201" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P201" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:17">
       <c r="A202" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P202" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q204" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:17">
       <c r="A205" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q205" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:17">
       <c r="A206" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q206" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:17">
       <c r="A207" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:17">
       <c r="A208" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:17">
       <c r="A211" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q213" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="214" spans="1:17">
       <c r="A214" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q214" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:17">
       <c r="A215" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q215" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:17">
       <c r="A216" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q216" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q217" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q218" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q219" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q220" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" spans="1:17">
       <c r="A223" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226" spans="1:17">
       <c r="A226" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q227" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:17">
       <c r="A228" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q228" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:17">
       <c r="A229" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230" spans="1:17">
       <c r="A230" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q230" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="231" spans="1:17">
       <c r="A231" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q231" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:17">
       <c r="A232" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q232" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:17">
       <c r="A233" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q233" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:17">
       <c r="A234" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="235" spans="1:17">
       <c r="A235" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q235" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:17">
       <c r="A236" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q236" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:17">
       <c r="A237" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q237" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q238" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:17">
       <c r="A239" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q239" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240" spans="1:17">
       <c r="A240" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q240" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="241" spans="1:17">
       <c r="A241" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q241" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="1:17">
       <c r="A242" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q242" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:17">
       <c r="A243" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q243" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="244" spans="1:17">
       <c r="A244" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q244" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:17">
       <c r="A245" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q245" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:17">
       <c r="A246" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q246" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="A247" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q247" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="A248" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q248" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="A249" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q249" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="250" spans="1:17">
       <c r="A250" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q250" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="251" spans="1:17">
       <c r="A251" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q251" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:17">
       <c r="A252" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q252" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:17">
       <c r="A253" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q253" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="254" spans="1:17">
       <c r="A254" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q254" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="255" spans="1:17">
       <c r="A255" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q255" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:17">
       <c r="A256" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q256" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:18">
       <c r="A257" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q257" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q258" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="259" spans="1:18">
       <c r="A259" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q259" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="260" spans="1:18">
       <c r="A260" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q260" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:18">
       <c r="A261" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q261" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:18">
       <c r="A262" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q262" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="263" spans="1:18">
       <c r="A263" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q263" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="264" spans="1:18">
       <c r="A264" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q264" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q265" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="266" spans="1:18">
       <c r="A266" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q266" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="1:18">
       <c r="A267" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q267" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="268" spans="1:18">
       <c r="A268" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q268" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269" spans="1:18">
       <c r="A269" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R269" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="270" spans="1:18">
       <c r="A270" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R270" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="271" spans="1:18">
       <c r="A271" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R271" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:18">
       <c r="A272" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R272" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="273" spans="1:18">
       <c r="A273" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R273" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="274" spans="1:18">
       <c r="A274" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R274" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="275" spans="1:18">
       <c r="A275" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R275" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="276" spans="1:18">
       <c r="A276" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R276" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="277" spans="1:18">
       <c r="A277" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R277" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="278" spans="1:18">
       <c r="A278" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R278" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279" spans="1:18">
       <c r="A279" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R279" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="280" spans="1:18">
       <c r="A280" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R280" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281" spans="1:18">
       <c r="A281" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R281" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282" spans="1:18">
       <c r="A282" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R282" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:18">
       <c r="A283" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R283" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:18">
       <c r="A284" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R284" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="285" spans="1:18">
       <c r="A285" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R285" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286" spans="1:18">
       <c r="A286" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R286" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="287" spans="1:18">
       <c r="A287" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R287" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288" spans="1:18">
       <c r="A288" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R288" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:18">
       <c r="A289" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R289" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="1:18">
       <c r="A290" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R290" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:18">
       <c r="A291" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R291" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="1:18">
       <c r="A292" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R292" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="293" spans="1:18">
       <c r="A293" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R293" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="294" spans="1:18">
       <c r="A294" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R294" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="295" spans="1:18">
       <c r="A295" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R295" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="296" spans="1:18">
       <c r="A296" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R296" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="297" spans="1:18">
       <c r="A297" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R297" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="298" spans="1:18">
       <c r="A298" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R298" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="299" spans="1:18">
       <c r="A299" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R299" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="300" spans="1:18">
       <c r="A300" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R300" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="301" spans="1:18">
       <c r="A301" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R301" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="302" spans="1:18">
       <c r="A302" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R302" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="1:18">
       <c r="A303" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R303" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="304" spans="1:18">
       <c r="A304" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R304" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="305" spans="1:18">
       <c r="A305" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R305" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="1:18">
       <c r="A306" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R306" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="307" spans="1:18">
       <c r="A307" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R307" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="308" spans="1:18">
       <c r="A308" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R308" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="309" spans="1:18">
       <c r="A309" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R309" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="310" spans="1:18">
       <c r="A310" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R310" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="311" spans="1:18">
       <c r="A311" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R311" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="312" spans="1:18">
       <c r="A312" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R312" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="313" spans="1:18">
       <c r="A313" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R313" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="314" spans="1:18">
       <c r="A314" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R314" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="1:18">
       <c r="A315" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R315" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="316" spans="1:18">
       <c r="A316" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R316" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317" spans="1:18">
       <c r="A317" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R317" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="1:18">
       <c r="A318" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R318" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="319" spans="1:18">
       <c r="A319" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R319" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="320" spans="1:18">
       <c r="A320" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R320" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="321" spans="1:19">
       <c r="A321" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R321" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="322" spans="1:19">
       <c r="A322" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R322" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="323" spans="1:19">
       <c r="A323" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R323" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="324" spans="1:19">
       <c r="A324" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R324" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="325" spans="1:19">
       <c r="A325" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S325" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="326" spans="1:19">
       <c r="A326" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S326" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="327" spans="1:19">
       <c r="A327" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S327" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="328" spans="1:19">
       <c r="A328" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="329" spans="1:19">
       <c r="A329" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S329" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="330" spans="1:19">
       <c r="A330" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S330" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="331" spans="1:19">
       <c r="A331" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S331" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="332" spans="1:19">
       <c r="A332" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S332" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="333" spans="1:19">
       <c r="A333" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S333" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="334" spans="1:19">
       <c r="A334" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S334" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="335" spans="1:19">
       <c r="A335" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S335" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="336" spans="1:19">
       <c r="A336" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S336" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S337" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S338" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="339" spans="1:20">
       <c r="A339" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S339" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="340" spans="1:20">
       <c r="A340" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S340" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="341" spans="1:20">
       <c r="A341" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S342" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S343" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S344" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S345" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S346" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S347" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S348" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="350" spans="1:20">
       <c r="A350" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S350" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T352" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T353" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T354" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T355" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T356" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T357" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T358" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T359" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U360" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U361" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U362" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U363" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U364" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U365" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U366" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U367" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U368" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="369" spans="1:24">
       <c r="A369" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U369" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="370" spans="1:24">
       <c r="A370" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V370" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="371" spans="1:24">
       <c r="A371" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V371" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="372" spans="1:24">
       <c r="A372" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V372" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="373" spans="1:24">
       <c r="A373" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V373" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="374" spans="1:24">
       <c r="A374" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V374" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="375" spans="1:24">
       <c r="A375" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V375" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="376" spans="1:24">
       <c r="A376" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W376" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="377" spans="1:24">
       <c r="A377" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W377" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="378" spans="1:24">
       <c r="A378" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W378" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="379" spans="1:24">
       <c r="A379" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W379" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="380" spans="1:24">
       <c r="A380" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W380" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="381" spans="1:24">
       <c r="A381" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="W381" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="382" spans="1:24">
       <c r="A382" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="X382" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="383" spans="1:24">
       <c r="A383" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X383" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="384" spans="1:24">
       <c r="A384" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X384" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="385" spans="1:25">
       <c r="A385" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X385" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="386" spans="1:25">
       <c r="A386" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="X386" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="387" spans="1:25">
       <c r="A387" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="X387" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="388" spans="1:25">
       <c r="A388" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="X388" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="389" spans="1:25">
       <c r="A389" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X389" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="390" spans="1:25">
       <c r="A390" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X390" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="391" spans="1:25">
       <c r="A391" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X391" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="392" spans="1:25">
       <c r="A392" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X392" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="393" spans="1:25">
       <c r="A393" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X393" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="394" spans="1:25">
       <c r="A394" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X394" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="395" spans="1:25">
       <c r="A395" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X395" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="396" spans="1:25">
       <c r="A396" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X396" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="397" spans="1:25">
       <c r="A397" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y397" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="398" spans="1:25">
       <c r="A398" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y398" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="399" spans="1:25">
       <c r="A399" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y399" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="400" spans="1:25">
       <c r="A400" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y400" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="401" spans="1:26">
       <c r="A401" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Y401" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="402" spans="1:26">
       <c r="A402" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y402" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="403" spans="1:26">
       <c r="A403" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y403" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="404" spans="1:26">
       <c r="A404" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y404" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="405" spans="1:26">
       <c r="A405" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Y405" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="406" spans="1:26">
       <c r="A406" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y406" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="407" spans="1:26">
       <c r="A407" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y407" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="408" spans="1:26">
       <c r="A408" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Y408" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="409" spans="1:26">
       <c r="A409" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Y409" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="410" spans="1:26">
       <c r="A410" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y410" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="411" spans="1:26">
       <c r="A411" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z411" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="412" spans="1:26">
       <c r="A412" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Z412" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="413" spans="1:26">
       <c r="A413" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z413" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="414" spans="1:26">
       <c r="A414" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z414" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="415" spans="1:26">
       <c r="A415" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z415" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="416" spans="1:26">
       <c r="A416" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z416" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="417" spans="1:28">
       <c r="A417" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z417" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="1:28">
       <c r="A418" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z418" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="419" spans="1:28">
       <c r="A419" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AA419" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="420" spans="1:28">
       <c r="A420" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA420" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="421" spans="1:28">
       <c r="A421" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA421" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="422" spans="1:28">
       <c r="A422" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AA422" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="423" spans="1:28">
       <c r="A423" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA423" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="424" spans="1:28">
       <c r="A424" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA424" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="425" spans="1:28">
       <c r="A425" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA425" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="426" spans="1:28">
       <c r="A426" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="427" spans="1:28">
       <c r="A427" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA427" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="428" spans="1:28">
       <c r="A428" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA428" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="429" spans="1:28">
       <c r="A429" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA429" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="430" spans="1:28">
       <c r="A430" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="431" spans="1:28">
       <c r="A431" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="432" spans="1:28">
       <c r="A432" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB432" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="433" spans="1:31">
       <c r="A433" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC433" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="434" spans="1:31">
       <c r="A434" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AC434" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="435" spans="1:31">
       <c r="A435" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC435" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="436" spans="1:31">
       <c r="A436" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="437" spans="1:31">
       <c r="A437" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AD437" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="438" spans="1:31">
       <c r="A438" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AD438" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="439" spans="1:31">
       <c r="A439" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AD439" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="440" spans="1:31">
       <c r="A440" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AD440" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="441" spans="1:31">
       <c r="A441" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AD441" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="442" spans="1:31">
       <c r="A442" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="443" spans="1:31">
       <c r="A443" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AD443" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="444" spans="1:31">
       <c r="A444" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AD444" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="445" spans="1:31">
       <c r="A445" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AD445" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="446" spans="1:31">
       <c r="A446" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AD446" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="447" spans="1:31">
       <c r="A447" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD447" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="448" spans="1:31">
       <c r="A448" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AE448" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="449" spans="1:31">
       <c r="A449" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AE449" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="450" spans="1:31">
       <c r="A450" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AE450" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="451" spans="1:31">
       <c r="A451" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE451" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="452" spans="1:31">
       <c r="A452" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE452" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="453" spans="1:31">
       <c r="A453" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AE453" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="454" spans="1:31">
       <c r="A454" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AE454" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="455" spans="1:31">
       <c r="A455" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE455" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="456" spans="1:31">
       <c r="A456" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AE456" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="457" spans="1:31">
       <c r="A457" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AE457" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="458" spans="1:31">
       <c r="A458" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE458" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="459" spans="1:31">
       <c r="A459" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AE459" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="460" spans="1:31">
       <c r="A460" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AE460" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="461" spans="1:31">
       <c r="A461" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE461" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="462" spans="1:31">
       <c r="A462" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE462" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="463" spans="1:31">
       <c r="A463" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AE463" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="464" spans="1:31">
       <c r="A464" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AE464" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="465" spans="1:32">
       <c r="A465" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AE465" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="466" spans="1:32">
       <c r="A466" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AE466" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="467" spans="1:32">
       <c r="A467" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AE467" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="468" spans="1:32">
       <c r="A468" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AE468" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="469" spans="1:32">
       <c r="A469" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AE469" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="470" spans="1:32">
       <c r="A470" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF470" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="471" spans="1:32">
       <c r="A471" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF471" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="472" spans="1:32">
       <c r="A472" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF472" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="473" spans="1:32">
       <c r="A473" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF473" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="474" spans="1:32">
       <c r="A474" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF474" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="475" spans="1:32">
       <c r="A475" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF475" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="476" spans="1:32">
       <c r="A476" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF476" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="477" spans="1:32">
       <c r="A477" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF477" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="478" spans="1:32">
       <c r="A478" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF478" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="479" spans="1:32">
       <c r="A479" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF479" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="480" spans="1:32">
       <c r="A480" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF480" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="481" spans="1:32">
       <c r="A481" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF481" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="482" spans="1:32">
       <c r="A482" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF482" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="483" spans="1:32">
       <c r="A483" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF483" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="484" spans="1:32">
       <c r="A484" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF484" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="485" spans="1:32">
       <c r="A485" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF485" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="486" spans="1:32">
       <c r="A486" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF486" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="487" spans="1:32">
       <c r="A487" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF487" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="488" spans="1:32">
       <c r="A488" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF488" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="489" spans="1:32">
       <c r="A489" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF489" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="490" spans="1:32">
       <c r="A490" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF490" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="491" spans="1:32">
       <c r="A491" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF491" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="492" spans="1:32">
       <c r="A492" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF492" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="493" spans="1:32">
       <c r="A493" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF493" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="494" spans="1:32">
       <c r="A494" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF494" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="495" spans="1:32">
       <c r="A495" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF495" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="496" spans="1:32">
       <c r="A496" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF496" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="497" spans="1:32">
       <c r="A497" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF497" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="498" spans="1:32">
       <c r="A498" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF498" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="499" spans="1:32">
       <c r="A499" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF499" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="500" spans="1:32">
       <c r="A500" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF500" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="501" spans="1:32">
       <c r="A501" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF501" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="502" spans="1:32">
       <c r="A502" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF502" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="503" spans="1:32">
       <c r="A503" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF503" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="504" spans="1:32">
       <c r="A504" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF504" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="505" spans="1:32">
       <c r="A505" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF505" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="506" spans="1:32">
       <c r="A506" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF506" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="507" spans="1:32">
       <c r="A507" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF507" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="508" spans="1:32">
       <c r="A508" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF508" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="509" spans="1:32">
       <c r="A509" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF509" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="510" spans="1:32">
       <c r="A510" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF510" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="511" spans="1:32">
       <c r="A511" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF511" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="512" spans="1:32">
       <c r="A512" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF512" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="513" spans="1:33">
       <c r="A513" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG513" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="514" spans="1:33">
       <c r="A514" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG514" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="515" spans="1:33">
       <c r="A515" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG515" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="516" spans="1:33">
       <c r="A516" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG516" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="517" spans="1:33">
       <c r="A517" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG517" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="518" spans="1:33">
       <c r="A518" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG518" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="519" spans="1:33">
       <c r="A519" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG519" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="520" spans="1:33">
       <c r="A520" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG520" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="521" spans="1:33">
       <c r="A521" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG521" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="522" spans="1:33">
       <c r="A522" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG522" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="523" spans="1:33">
       <c r="A523" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG523" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="524" spans="1:33">
       <c r="A524" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG524" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="525" spans="1:33">
       <c r="A525" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG525" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="526" spans="1:33">
       <c r="A526" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG526" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="527" spans="1:33">
       <c r="A527" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG527" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="528" spans="1:33">
       <c r="A528" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG528" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="529" spans="1:34">
       <c r="A529" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG529" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="530" spans="1:34">
       <c r="A530" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG530" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="531" spans="1:34">
       <c r="A531" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG531" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="532" spans="1:34">
       <c r="A532" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG532" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="533" spans="1:34">
       <c r="A533" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG533" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="534" spans="1:34">
       <c r="A534" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG534" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="535" spans="1:34">
       <c r="A535" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG535" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="536" spans="1:34">
       <c r="A536" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AH536" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="537" spans="1:34">
       <c r="A537" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH537" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="538" spans="1:34">
       <c r="A538" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH538" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="539" spans="1:34">
       <c r="A539" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH539" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="540" spans="1:34">
       <c r="A540" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AH540" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="541" spans="1:34">
       <c r="A541" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AH541" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="542" spans="1:34">
       <c r="A542" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH542" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="543" spans="1:34">
       <c r="A543" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AH543" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="544" spans="1:34">
       <c r="A544" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AH544" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="545" spans="1:34">
       <c r="A545" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AH545" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="546" spans="1:34">
       <c r="A546" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH546" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="547" spans="1:34">
       <c r="A547" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AH547" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="548" spans="1:34">
       <c r="A548" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AH548" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="549" spans="1:34">
       <c r="A549" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AH549" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="550" spans="1:34">
       <c r="A550" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AH550" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="551" spans="1:34">
       <c r="A551" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH551" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="552" spans="1:34">
       <c r="A552" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH552" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="553" spans="1:34">
       <c r="A553" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH553" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="554" spans="1:34">
       <c r="A554" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AH554" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="555" spans="1:34">
       <c r="A555" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AH555" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="556" spans="1:34">
       <c r="A556" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AH556" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="557" spans="1:34">
       <c r="A557" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH557" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="558" spans="1:34">
       <c r="A558" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AH558" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="559" spans="1:34">
       <c r="A559" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AH559" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="560" spans="1:34">
       <c r="A560" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AH560" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="561" spans="1:34">
       <c r="A561" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AH561" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="562" spans="1:34">
       <c r="A562" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AH562" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="563" spans="1:34">
       <c r="A563" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH563" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="564" spans="1:34">
       <c r="A564" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH564" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="565" spans="1:34">
       <c r="A565" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AH565" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="566" spans="1:34">
       <c r="A566" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH566" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="567" spans="1:34">
       <c r="A567" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH567" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="568" spans="1:34">
       <c r="A568" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AH568" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="569" spans="1:34">
       <c r="A569" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AH569" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="570" spans="1:34">
       <c r="A570" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH570" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="571" spans="1:34">
       <c r="A571" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AH571" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="572" spans="1:34">
       <c r="A572" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AH572" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="573" spans="1:34">
       <c r="A573" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AH573" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="574" spans="1:34">
       <c r="A574" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH574" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="575" spans="1:34">
       <c r="A575" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AH575" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="576" spans="1:34">
       <c r="A576" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH576" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="577" spans="1:36">
       <c r="A577" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AH577" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="578" spans="1:36">
       <c r="A578" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AI578" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="579" spans="1:36">
       <c r="A579" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AI579" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="580" spans="1:36">
       <c r="A580" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AI580" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="581" spans="1:36">
       <c r="A581" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AI581" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="582" spans="1:36">
       <c r="A582" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AI582" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="583" spans="1:36">
       <c r="A583" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AI583" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="584" spans="1:36">
       <c r="A584" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI584" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="585" spans="1:36">
       <c r="A585" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AI585" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="586" spans="1:36">
       <c r="A586" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AI586" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="587" spans="1:36">
       <c r="A587" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AI587" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="588" spans="1:36">
       <c r="A588" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AI588" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="589" spans="1:36">
       <c r="A589" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AJ589" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="590" spans="1:36">
       <c r="A590" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AJ590" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="591" spans="1:36">
       <c r="A591" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AJ591" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="592" spans="1:36">
       <c r="A592" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AJ592" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/data/words/v1/形容词做谓语.xlsx
+++ b/data/words/v1/形容词做谓语.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB023423-0173-814D-9FDF-59A9FBDF73CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A9AAA7-5427-1246-BE64-CC055162CDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="形容词做谓语" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,9 @@
     <t>天气-夏季-中性</t>
   </si>
   <si>
+    <t>天气-夏季=差</t>
+  </si>
+  <si>
     <t>天气-秋季-好</t>
   </si>
   <si>
@@ -1610,17 +1613,13 @@
   </si>
   <si>
     <t>昂首挺胸</t>
-  </si>
-  <si>
-    <t>天气-夏季-差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,12 +1637,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1689,7 +1682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1697,9 +1690,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2009,10 +1999,10 @@
   <dimension ref="A1:AK619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
@@ -2108,4910 +2098,4910 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>530</v>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P179" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P187" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:17">
       <c r="A193" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P193" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:17">
       <c r="A194" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:17">
       <c r="A195" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196" spans="1:17">
       <c r="A196" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197" spans="1:17">
       <c r="A197" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:17">
       <c r="A198" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199" spans="1:17">
       <c r="A199" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:17">
       <c r="A200" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:17">
       <c r="A201" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P201" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:17">
       <c r="A202" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P202" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q204" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:17">
       <c r="A205" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q205" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="206" spans="1:17">
       <c r="A206" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q206" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:17">
       <c r="A207" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:17">
       <c r="A208" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:17">
       <c r="A211" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q213" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:17">
       <c r="A214" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q214" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="215" spans="1:17">
       <c r="A215" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q215" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:17">
       <c r="A216" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q216" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q217" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q218" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q219" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q220" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:17">
       <c r="A223" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="226" spans="1:17">
       <c r="A226" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q227" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="228" spans="1:17">
       <c r="A228" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q228" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:17">
       <c r="A229" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="230" spans="1:17">
       <c r="A230" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q230" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="231" spans="1:17">
       <c r="A231" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q231" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="232" spans="1:17">
       <c r="A232" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q232" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="233" spans="1:17">
       <c r="A233" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q233" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="1:17">
       <c r="A234" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:17">
       <c r="A235" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q235" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="236" spans="1:17">
       <c r="A236" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q236" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237" spans="1:17">
       <c r="A237" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q237" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q238" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="239" spans="1:17">
       <c r="A239" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q239" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="240" spans="1:17">
       <c r="A240" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q240" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="241" spans="1:17">
       <c r="A241" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q241" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="242" spans="1:17">
       <c r="A242" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q242" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="243" spans="1:17">
       <c r="A243" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q243" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="244" spans="1:17">
       <c r="A244" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q244" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="245" spans="1:17">
       <c r="A245" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q245" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="1:17">
       <c r="A246" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q246" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="A247" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q247" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="A248" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q248" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="A249" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q249" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="250" spans="1:17">
       <c r="A250" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q250" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="251" spans="1:17">
       <c r="A251" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q251" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="252" spans="1:17">
       <c r="A252" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q252" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253" spans="1:17">
       <c r="A253" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q253" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254" spans="1:17">
       <c r="A254" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q254" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:17">
       <c r="A255" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q255" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="256" spans="1:17">
       <c r="A256" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q256" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="257" spans="1:18">
       <c r="A257" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q257" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q258" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="1:18">
       <c r="A259" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q259" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:18">
       <c r="A260" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q260" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="261" spans="1:18">
       <c r="A261" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q261" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:18">
       <c r="A262" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q262" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="263" spans="1:18">
       <c r="A263" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q263" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="264" spans="1:18">
       <c r="A264" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q264" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q265" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:18">
       <c r="A266" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q266" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="267" spans="1:18">
       <c r="A267" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q267" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="268" spans="1:18">
       <c r="A268" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q268" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="269" spans="1:18">
       <c r="A269" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R269" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270" spans="1:18">
       <c r="A270" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R270" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="271" spans="1:18">
       <c r="A271" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R271" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="272" spans="1:18">
       <c r="A272" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R272" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="1:18">
       <c r="A273" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R273" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="274" spans="1:18">
       <c r="A274" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R274" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:18">
       <c r="A275" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R275" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="276" spans="1:18">
       <c r="A276" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R276" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277" spans="1:18">
       <c r="A277" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R277" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278" spans="1:18">
       <c r="A278" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R278" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="279" spans="1:18">
       <c r="A279" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R279" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="280" spans="1:18">
       <c r="A280" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R280" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="281" spans="1:18">
       <c r="A281" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R281" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282" spans="1:18">
       <c r="A282" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R282" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283" spans="1:18">
       <c r="A283" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R283" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:18">
       <c r="A284" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R284" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:18">
       <c r="A285" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R285" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="286" spans="1:18">
       <c r="A286" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R286" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="287" spans="1:18">
       <c r="A287" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R287" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="288" spans="1:18">
       <c r="A288" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R288" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="289" spans="1:18">
       <c r="A289" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R289" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="290" spans="1:18">
       <c r="A290" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R290" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="291" spans="1:18">
       <c r="A291" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R291" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="292" spans="1:18">
       <c r="A292" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R292" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="293" spans="1:18">
       <c r="A293" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R293" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="294" spans="1:18">
       <c r="A294" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R294" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="295" spans="1:18">
       <c r="A295" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R295" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="296" spans="1:18">
       <c r="A296" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R296" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="297" spans="1:18">
       <c r="A297" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R297" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="298" spans="1:18">
       <c r="A298" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R298" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="299" spans="1:18">
       <c r="A299" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R299" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="300" spans="1:18">
       <c r="A300" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R300" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="301" spans="1:18">
       <c r="A301" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R301" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="302" spans="1:18">
       <c r="A302" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R302" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="303" spans="1:18">
       <c r="A303" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R303" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="304" spans="1:18">
       <c r="A304" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R304" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="305" spans="1:18">
       <c r="A305" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R305" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="306" spans="1:18">
       <c r="A306" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R306" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="307" spans="1:18">
       <c r="A307" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R307" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="308" spans="1:18">
       <c r="A308" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R308" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="309" spans="1:18">
       <c r="A309" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R309" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="310" spans="1:18">
       <c r="A310" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R310" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="311" spans="1:18">
       <c r="A311" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R311" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="312" spans="1:18">
       <c r="A312" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R312" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="313" spans="1:18">
       <c r="A313" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R313" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="314" spans="1:18">
       <c r="A314" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R314" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="315" spans="1:18">
       <c r="A315" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R315" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="316" spans="1:18">
       <c r="A316" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R316" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="317" spans="1:18">
       <c r="A317" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R317" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="318" spans="1:18">
       <c r="A318" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R318" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319" spans="1:18">
       <c r="A319" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R319" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="320" spans="1:18">
       <c r="A320" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R320" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="321" spans="1:19">
       <c r="A321" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R321" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="322" spans="1:19">
       <c r="A322" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R322" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="323" spans="1:19">
       <c r="A323" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R323" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="324" spans="1:19">
       <c r="A324" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R324" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="325" spans="1:19">
       <c r="A325" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S325" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:19">
       <c r="A326" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S326" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="327" spans="1:19">
       <c r="A327" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S327" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="328" spans="1:19">
       <c r="A328" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="329" spans="1:19">
       <c r="A329" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S329" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="330" spans="1:19">
       <c r="A330" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S330" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="331" spans="1:19">
       <c r="A331" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S331" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="332" spans="1:19">
       <c r="A332" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S332" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="333" spans="1:19">
       <c r="A333" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S333" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="334" spans="1:19">
       <c r="A334" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S334" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:19">
       <c r="A335" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S335" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="336" spans="1:19">
       <c r="A336" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S336" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="337" spans="1:20">
       <c r="A337" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S337" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="338" spans="1:20">
       <c r="A338" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S338" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="339" spans="1:20">
       <c r="A339" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S339" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:20">
       <c r="A340" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S340" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="341" spans="1:20">
       <c r="A341" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="342" spans="1:20">
       <c r="A342" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S342" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="343" spans="1:20">
       <c r="A343" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S343" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="344" spans="1:20">
       <c r="A344" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S344" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="345" spans="1:20">
       <c r="A345" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S345" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="346" spans="1:20">
       <c r="A346" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S346" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:20">
       <c r="A347" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S347" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="348" spans="1:20">
       <c r="A348" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S348" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:20">
       <c r="A349" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:20">
       <c r="A350" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S350" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="351" spans="1:20">
       <c r="A351" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="352" spans="1:20">
       <c r="A352" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T352" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="353" spans="1:21">
       <c r="A353" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="T353" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="354" spans="1:21">
       <c r="A354" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T354" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="355" spans="1:21">
       <c r="A355" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T355" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="356" spans="1:21">
       <c r="A356" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T356" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="357" spans="1:21">
       <c r="A357" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T357" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="358" spans="1:21">
       <c r="A358" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="T358" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="359" spans="1:21">
       <c r="A359" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T359" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="360" spans="1:21">
       <c r="A360" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U360" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="361" spans="1:21">
       <c r="A361" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U361" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="362" spans="1:21">
       <c r="A362" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U362" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="363" spans="1:21">
       <c r="A363" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U363" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="364" spans="1:21">
       <c r="A364" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U364" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="365" spans="1:21">
       <c r="A365" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="U365" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="366" spans="1:21">
       <c r="A366" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U366" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="367" spans="1:21">
       <c r="A367" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="U367" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="368" spans="1:21">
       <c r="A368" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U368" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="369" spans="1:24">
       <c r="A369" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U369" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="370" spans="1:24">
       <c r="A370" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V370" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="371" spans="1:24">
       <c r="A371" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V371" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="372" spans="1:24">
       <c r="A372" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="V372" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="373" spans="1:24">
       <c r="A373" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V373" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="374" spans="1:24">
       <c r="A374" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V374" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="375" spans="1:24">
       <c r="A375" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V375" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="376" spans="1:24">
       <c r="A376" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W376" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="377" spans="1:24">
       <c r="A377" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W377" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="378" spans="1:24">
       <c r="A378" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W378" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="379" spans="1:24">
       <c r="A379" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W379" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="380" spans="1:24">
       <c r="A380" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W380" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="381" spans="1:24">
       <c r="A381" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W381" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="382" spans="1:24">
       <c r="A382" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X382" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="383" spans="1:24">
       <c r="A383" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X383" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="384" spans="1:24">
       <c r="A384" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X384" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="385" spans="1:25">
       <c r="A385" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X385" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="386" spans="1:25">
       <c r="A386" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="X386" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:25">
       <c r="A387" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X387" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="388" spans="1:25">
       <c r="A388" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="X388" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="389" spans="1:25">
       <c r="A389" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X389" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="390" spans="1:25">
       <c r="A390" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="X390" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="391" spans="1:25">
       <c r="A391" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="X391" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="392" spans="1:25">
       <c r="A392" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="X392" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393" spans="1:25">
       <c r="A393" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="X393" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394" spans="1:25">
       <c r="A394" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="X394" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="395" spans="1:25">
       <c r="A395" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="X395" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="396" spans="1:25">
       <c r="A396" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X396" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="397" spans="1:25">
       <c r="A397" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y397" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="398" spans="1:25">
       <c r="A398" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y398" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="399" spans="1:25">
       <c r="A399" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y399" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="400" spans="1:25">
       <c r="A400" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y400" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="401" spans="1:26">
       <c r="A401" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y401" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="402" spans="1:26">
       <c r="A402" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y402" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="403" spans="1:26">
       <c r="A403" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y403" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="404" spans="1:26">
       <c r="A404" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y404" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="405" spans="1:26">
       <c r="A405" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y405" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="406" spans="1:26">
       <c r="A406" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y406" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="407" spans="1:26">
       <c r="A407" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y407" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="408" spans="1:26">
       <c r="A408" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y408" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="409" spans="1:26">
       <c r="A409" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y409" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="410" spans="1:26">
       <c r="A410" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y410" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="411" spans="1:26">
       <c r="A411" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z411" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="412" spans="1:26">
       <c r="A412" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z412" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="413" spans="1:26">
       <c r="A413" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z413" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="414" spans="1:26">
       <c r="A414" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z414" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="415" spans="1:26">
       <c r="A415" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z415" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="416" spans="1:26">
       <c r="A416" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z416" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="417" spans="1:28">
       <c r="A417" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z417" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="418" spans="1:28">
       <c r="A418" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z418" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="419" spans="1:28">
       <c r="A419" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA419" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="420" spans="1:28">
       <c r="A420" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA420" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="421" spans="1:28">
       <c r="A421" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA421" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="422" spans="1:28">
       <c r="A422" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA422" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="423" spans="1:28">
       <c r="A423" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA423" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="424" spans="1:28">
       <c r="A424" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA424" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="425" spans="1:28">
       <c r="A425" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA425" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="426" spans="1:28">
       <c r="A426" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="427" spans="1:28">
       <c r="A427" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA427" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="428" spans="1:28">
       <c r="A428" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA428" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="429" spans="1:28">
       <c r="A429" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA429" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="430" spans="1:28">
       <c r="A430" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="431" spans="1:28">
       <c r="A431" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="432" spans="1:28">
       <c r="A432" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AB432" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="433" spans="1:31">
       <c r="A433" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AC433" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="434" spans="1:31">
       <c r="A434" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AC434" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="435" spans="1:31">
       <c r="A435" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AC435" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="436" spans="1:31">
       <c r="A436" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AD436" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="437" spans="1:31">
       <c r="A437" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AD437" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="438" spans="1:31">
       <c r="A438" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AD438" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="439" spans="1:31">
       <c r="A439" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AD439" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="440" spans="1:31">
       <c r="A440" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD440" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="441" spans="1:31">
       <c r="A441" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AD441" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="442" spans="1:31">
       <c r="A442" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="443" spans="1:31">
       <c r="A443" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AD443" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="444" spans="1:31">
       <c r="A444" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AD444" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="445" spans="1:31">
       <c r="A445" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AD445" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="446" spans="1:31">
       <c r="A446" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD446" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="447" spans="1:31">
       <c r="A447" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AD447" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="448" spans="1:31">
       <c r="A448" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AE448" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="449" spans="1:31">
       <c r="A449" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AE449" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="450" spans="1:31">
       <c r="A450" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AE450" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="451" spans="1:31">
       <c r="A451" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AE451" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="452" spans="1:31">
       <c r="A452" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AE452" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="453" spans="1:31">
       <c r="A453" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AE453" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="454" spans="1:31">
       <c r="A454" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AE454" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="455" spans="1:31">
       <c r="A455" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE455" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="456" spans="1:31">
       <c r="A456" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AE456" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="457" spans="1:31">
       <c r="A457" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AE457" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="458" spans="1:31">
       <c r="A458" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AE458" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="459" spans="1:31">
       <c r="A459" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AE459" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="460" spans="1:31">
       <c r="A460" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AE460" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="461" spans="1:31">
       <c r="A461" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AE461" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="462" spans="1:31">
       <c r="A462" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE462" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="463" spans="1:31">
       <c r="A463" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AE463" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="464" spans="1:31">
       <c r="A464" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AE464" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="465" spans="1:32">
       <c r="A465" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AE465" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="466" spans="1:32">
       <c r="A466" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AE466" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="467" spans="1:32">
       <c r="A467" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AE467" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="468" spans="1:32">
       <c r="A468" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE468" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="469" spans="1:32">
       <c r="A469" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AE469" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="470" spans="1:32">
       <c r="A470" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF470" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="471" spans="1:32">
       <c r="A471" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF471" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="472" spans="1:32">
       <c r="A472" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF472" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="473" spans="1:32">
       <c r="A473" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF473" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="474" spans="1:32">
       <c r="A474" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF474" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="475" spans="1:32">
       <c r="A475" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF475" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="476" spans="1:32">
       <c r="A476" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF476" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="477" spans="1:32">
       <c r="A477" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF477" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="478" spans="1:32">
       <c r="A478" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF478" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="479" spans="1:32">
       <c r="A479" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF479" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="480" spans="1:32">
       <c r="A480" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF480" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="481" spans="1:32">
       <c r="A481" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF481" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="482" spans="1:32">
       <c r="A482" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF482" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="483" spans="1:32">
       <c r="A483" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF483" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="484" spans="1:32">
       <c r="A484" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF484" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="485" spans="1:32">
       <c r="A485" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF485" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="486" spans="1:32">
       <c r="A486" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF486" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="487" spans="1:32">
       <c r="A487" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF487" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="488" spans="1:32">
       <c r="A488" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF488" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="489" spans="1:32">
       <c r="A489" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF489" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="490" spans="1:32">
       <c r="A490" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF490" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="491" spans="1:32">
       <c r="A491" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF491" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="492" spans="1:32">
       <c r="A492" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF492" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="493" spans="1:32">
       <c r="A493" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF493" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="494" spans="1:32">
       <c r="A494" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF494" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="495" spans="1:32">
       <c r="A495" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF495" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="496" spans="1:32">
       <c r="A496" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF496" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="497" spans="1:32">
       <c r="A497" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF497" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="498" spans="1:32">
       <c r="A498" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF498" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="499" spans="1:32">
       <c r="A499" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF499" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="500" spans="1:32">
       <c r="A500" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF500" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="501" spans="1:32">
       <c r="A501" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF501" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="502" spans="1:32">
       <c r="A502" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF502" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="503" spans="1:32">
       <c r="A503" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF503" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="504" spans="1:32">
       <c r="A504" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF504" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="505" spans="1:32">
       <c r="A505" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF505" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="506" spans="1:32">
       <c r="A506" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF506" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="507" spans="1:32">
       <c r="A507" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF507" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="508" spans="1:32">
       <c r="A508" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF508" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="509" spans="1:32">
       <c r="A509" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF509" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="510" spans="1:32">
       <c r="A510" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF510" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="511" spans="1:32">
       <c r="A511" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF511" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="512" spans="1:32">
       <c r="A512" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF512" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="513" spans="1:33">
       <c r="A513" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG513" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="514" spans="1:33">
       <c r="A514" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG514" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="515" spans="1:33">
       <c r="A515" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG515" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="516" spans="1:33">
       <c r="A516" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG516" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="517" spans="1:33">
       <c r="A517" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG517" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="518" spans="1:33">
       <c r="A518" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG518" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="519" spans="1:33">
       <c r="A519" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG519" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="520" spans="1:33">
       <c r="A520" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG520" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="521" spans="1:33">
       <c r="A521" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG521" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="522" spans="1:33">
       <c r="A522" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG522" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="523" spans="1:33">
       <c r="A523" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG523" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="524" spans="1:33">
       <c r="A524" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG524" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="525" spans="1:33">
       <c r="A525" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG525" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="526" spans="1:33">
       <c r="A526" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG526" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="527" spans="1:33">
       <c r="A527" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG527" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="528" spans="1:33">
       <c r="A528" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG528" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="529" spans="1:34">
       <c r="A529" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG529" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="530" spans="1:34">
       <c r="A530" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG530" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="531" spans="1:34">
       <c r="A531" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG531" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="532" spans="1:34">
       <c r="A532" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG532" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="533" spans="1:34">
       <c r="A533" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG533" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="534" spans="1:34">
       <c r="A534" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG534" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="535" spans="1:34">
       <c r="A535" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG535" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="536" spans="1:34">
       <c r="A536" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH536" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="537" spans="1:34">
       <c r="A537" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AH537" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="538" spans="1:34">
       <c r="A538" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH538" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="539" spans="1:34">
       <c r="A539" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH539" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="540" spans="1:34">
       <c r="A540" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH540" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="541" spans="1:34">
       <c r="A541" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AH541" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="542" spans="1:34">
       <c r="A542" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AH542" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="543" spans="1:34">
       <c r="A543" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AH543" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="544" spans="1:34">
       <c r="A544" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AH544" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="545" spans="1:34">
       <c r="A545" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH545" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="546" spans="1:34">
       <c r="A546" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH546" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="547" spans="1:34">
       <c r="A547" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AH547" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="548" spans="1:34">
       <c r="A548" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AH548" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="549" spans="1:34">
       <c r="A549" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AH549" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="550" spans="1:34">
       <c r="A550" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH550" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="551" spans="1:34">
       <c r="A551" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH551" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="552" spans="1:34">
       <c r="A552" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AH552" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="553" spans="1:34">
       <c r="A553" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH553" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="554" spans="1:34">
       <c r="A554" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH554" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="555" spans="1:34">
       <c r="A555" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AH555" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="556" spans="1:34">
       <c r="A556" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH556" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="557" spans="1:34">
       <c r="A557" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH557" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="558" spans="1:34">
       <c r="A558" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AH558" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="559" spans="1:34">
       <c r="A559" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH559" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="560" spans="1:34">
       <c r="A560" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AH560" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="561" spans="1:34">
       <c r="A561" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH561" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="562" spans="1:34">
       <c r="A562" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AH562" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="563" spans="1:34">
       <c r="A563" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AH563" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="564" spans="1:34">
       <c r="A564" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH564" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="565" spans="1:34">
       <c r="A565" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AH565" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="566" spans="1:34">
       <c r="A566" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AH566" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="567" spans="1:34">
       <c r="A567" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH567" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="568" spans="1:34">
       <c r="A568" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AH568" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="569" spans="1:34">
       <c r="A569" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH569" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="570" spans="1:34">
       <c r="A570" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH570" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="571" spans="1:34">
       <c r="A571" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH571" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="572" spans="1:34">
       <c r="A572" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH572" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="573" spans="1:34">
       <c r="A573" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AH573" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="574" spans="1:34">
       <c r="A574" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AH574" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="575" spans="1:34">
       <c r="A575" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AH575" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="576" spans="1:34">
       <c r="A576" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AH576" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="577" spans="1:36">
       <c r="A577" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AH577" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="578" spans="1:36">
       <c r="A578" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI578" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="579" spans="1:36">
       <c r="A579" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AI579" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="580" spans="1:36">
       <c r="A580" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI580" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="581" spans="1:36">
       <c r="A581" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AI581" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="582" spans="1:36">
       <c r="A582" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AI582" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="583" spans="1:36">
       <c r="A583" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AI583" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="584" spans="1:36">
       <c r="A584" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AI584" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="585" spans="1:36">
       <c r="A585" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AI585" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="586" spans="1:36">
       <c r="A586" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AI586" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="587" spans="1:36">
       <c r="A587" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AI587" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="588" spans="1:36">
       <c r="A588" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AI588" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="589" spans="1:36">
       <c r="A589" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ589" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="590" spans="1:36">
       <c r="A590" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ590" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="591" spans="1:36">
       <c r="A591" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AJ591" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="592" spans="1:36">
       <c r="A592" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AJ592" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
